--- a/biology/Médecine/Max_Breitung/Max_Breitung.xlsx
+++ b/biology/Médecine/Max_Breitung/Max_Breitung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max August Friedrich Bendung (né le 11 avril 1852 dans Langensalza et mort en 1921 à Cobourg[1]) est un médecin et écrivain allemand. En tant que dramaturge, il écrit sous le pseudonyme "Meo Breo".
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max August Friedrich Bendung (né le 11 avril 1852 dans Langensalza et mort en 1921 à Cobourg) est un médecin et écrivain allemand. En tant que dramaturge, il écrit sous le pseudonyme "Meo Breo".
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Behre étudie la médecine à la Pépinière de Berlin. En 1874, il devient membre du Corps Borussia Berlin. Il termine ses études en 1877 en tant que docteur en médecine et travaille depuis à la Charité de Berlin. De 1878 à 1893, il est médecin. Entre 1886 et 1887, il effectue de grands voyages. À partir de 1893, il travaille uniquement comme consultant dans le domaine de l'otologie et de la laryngologie.
 Au total, il écrit plus de 50 publications sur divers domaines de la médecine. Il consacre une attention particulière au traitement de la perte auditive chronique progressive.
@@ -544,7 +558,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Herzoglich Sächsischer Sanitätsrat
 Professeur (1900)
@@ -582,8 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Médecine
-Die hygienische Einrichtung der Infanterie-Kaserne, 1881
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Die hygienische Einrichtung der Infanterie-Kaserne, 1881
 Über neuere Leichenanstalten. Hygienische Studien, 1886
 Der nicht erkannte Scheintod mit seinen Consequenzen im Lichte der Kritik. Leichenschau – Leichenverbrennung, 1886
 Taschenlexikon für Sanitätsoffiziere, 1887
@@ -597,9 +618,43 @@
 Das Phonendoskop als Hörrohr, 1898
 Über Besserhören im Lärm und die Bedeutung dieses Phänomens für die Pathologie und Therapie der Schwerhörigkeit im Lichte der Neuron-Lehre (Vortrag, gehalten bei der 70. Versammlung deutscher Naturforscher und Ärzte in Düsseldorf 1898)
 Schul-Hygiene, Volksgesundheitslehre und Tagespresse 1899
-Der Heilmagnetismus in der Familie, 1906 (2. Auflage 1924)
-Théâtre
-Jönköping – Lustspiel in 1 Aufzuge, 1880
+Der Heilmagnetismus in der Familie, 1906 (2. Auflage 1924)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Max_Breitung</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max_Breitung</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jönköping – Lustspiel in 1 Aufzuge, 1880
 Der Salon-Nihilist – Lustspiel in 4 Aufzügen, 1893
 Der Sonnenkaiser – Drama, 1896
 Coeur-Aß! – Lustspiel in einem Aufzuge, 1896
